--- a/biology/Médecine/Heinrich_Khunrath/Heinrich_Khunrath.xlsx
+++ b/biology/Médecine/Heinrich_Khunrath/Heinrich_Khunrath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Khunrath (vers 1560- 9 septembre 1605), est un médecin et alchimiste allemand. Il est surtout connu pour son traité alchimique l'Amphitheatrum Sapientiae Aeternae (Amphithéâtre de la sagesse éternelle).
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Khunrath naît en Allemagne, à Dresde ou à Leipzig, vers 1560. Il est peut-être apparenté à un autre médecin de Leipzig nommé Conrad Khunrath. Durant l'hiver 1570, il s'inscrit peut-être à l'Université de Leipzig sous le nom de Henricus Conrad Lips. Les incertitudes concernant sa biographie proviennent de son usage supposé de multiples noms. Il est cependant certain qu'il s'inscrit en mai 1588 à l'Université de Bâle en Suisse, y obtenant son diplôme de médecine le 3 septembre 1588.
 Disciple de Paracelse, il pratique la médecine à Dresde, Magdebourg et Hambourg, et il a peut-être occupé un poste de professeur à Leipzig. Il voyage beaucoup après 1588, faisant notamment un séjour à la cour impériale de Rodolphe II à Prague. En 1589, il y rencontre le mathématicien et astrologue anglais During John Dee alors en prison [réf. nécessaire]. En septembre 1591, Khunrath devient le médecin personnel du comte Rosemberg à Trebon. Il y rencontre probablement Johann Thölde, un des auteurs présumés des traités alchimiques de "Basile Valentin".
 Son ouvrage le plus connu, l' Amphitheatrum Sapientiae Aeternae (Amphithéâtre de la sagesse éternelle), est publié à Hambourg en 1595. C'est un classique de la littérature alchimique, qui mêle magie, philosophie naturelle et christianisme. Cet ouvrage eut une influence dans les milieux luthériens. L'historien John Warwick Montgomery note ainsi que le théologien luthérien Johann Arndt (1555 - 1621), écrivit un commentaire de l'Amphitheatrum. L'historienne Frances Yates le considère comme le lien entre la philosophie de John Dee et le Rosicrucianisme.
-Khunrath meurt dans la pauvreté à Dresde ou Leipzig le 9 septembre 1605. La plupart de ses écrits furent publiés bien après sa mort, et l'Amphitheatrum Sapientiae Aeternae fut condamné par la Sorbonne en 1625. Chandoux, qui en donna un commentaire, est condamné et pendu en 1631[1].
+Khunrath meurt dans la pauvreté à Dresde ou Leipzig le 9 septembre 1605. La plupart de ses écrits furent publiés bien après sa mort, et l'Amphitheatrum Sapientiae Aeternae fut condamné par la Sorbonne en 1625. Chandoux, qui en donna un commentaire, est condamné et pendu en 1631.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>L'Amphitheatrum Sapientae Aeternae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première édition date de 1595 à Hambourg. Le titre complet en latin est : Yehovah elohim tseva'ot, totique, celestis exercitus spiritualis, militiae, proximo suo fideli, et sibimetipsi, naturae atque arti, Amphitheatrum sapientiae aeternae, solius verae : nec non virginum velut, ei a cubiculis atq[ue] secretis, castissimarum, quibus, in totius machina mundi, non sanctiores, non praestantiores ullae, puta, cabalae, magejae, alchemiae, dominae suae miraculosae, in oratorio &amp; laboratorio, micro ac macrocosmice, artificio mirifico sapienter administrantium, secundum Christianae &amp; philosophicae veritatis normam, a diabolicis sophismatum execrandorum, pro veritate sese falso substituentium, larvis fucatis, repurgatarum, Catholicaq[ue] dexteritate, ad archetypi exemplar reformatarum, primordialive simplicitati triuni, Catholicae, digne restitutarum, cabalisticum, magejcum, physicochemicum, tertriunum, Catholicon.
-Elle est accompagnée de quatre gravures circulaires, colorées à la main et rehaussées d'or et d'argent, qui sont des symboles alchimiques élaborées. Ces planches ont été faites par le graveur Paullus van der Doort, et le dessin de laboratoire de l'alchimiste est du peintre hollandais Hans Vredeman de Vries, qui y utilise la perspective linéaire dont il est un des pionniers. Le portrait de Khunrath qui accompagne l'ouvrage est de Jan Diricks van Campen[2]
+Elle est accompagnée de quatre gravures circulaires, colorées à la main et rehaussées d'or et d'argent, qui sont des symboles alchimiques élaborées. Ces planches ont été faites par le graveur Paullus van der Doort, et le dessin de laboratoire de l'alchimiste est du peintre hollandais Hans Vredeman de Vries, qui y utilise la perspective linéaire dont il est un des pionniers. Le portrait de Khunrath qui accompagne l'ouvrage est de Jan Diricks van Campen
 Il ne reste que trois exemplaires de cette édition, dans les bibliothèques des universités de Bâle, Darmstadt et du Wisconsin
 			Le laboratoire de l'alchimiste.
 			La rose cosmique.
@@ -588,7 +604,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heinrich Khunrath, Amphitheatrum sapientiae aeternae, Hamburg, 1595
 Heinrich Khunrath, Amphitheatrum sapientiae aeternae, solius verae, christiano-kabalisticum, divino-magicum, ..., Hanau, Antonius Wilhelm, 1609 (lire en ligne)
